--- a/Bug_Reports.xlsx
+++ b/Bug_Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enthropy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enthropy\Desktop\testask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EFF359-7AFC-421A-89EE-5D4D4F5ED186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD656E3C-B11B-4C32-9F3E-6E17046A15A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BR_Auth" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>Тестирование API endpoints.</t>
   </si>
@@ -424,6 +424,34 @@
   </si>
   <si>
     <t>API некорректно обрабатывает POST запрос без тела и отдаёт статус-код HTTP 500 Internal Server Error вместо HTTP 400 Bad Request.</t>
+  </si>
+  <si>
+    <t>TC_Ping_1.1, 
+TC_Ping_1.2</t>
+  </si>
+  <si>
+    <t>TC_Ping_2.2</t>
+  </si>
+  <si>
+    <t>TC_Booking_1.4</t>
+  </si>
+  <si>
+    <t>TC_Booking_1.7</t>
+  </si>
+  <si>
+    <t>TC_Booking_2.1</t>
+  </si>
+  <si>
+    <t>TC_Booking_2.2</t>
+  </si>
+  <si>
+    <t>TC_Booking_2.3</t>
+  </si>
+  <si>
+    <t>TC_Booking_2.5</t>
+  </si>
+  <si>
+    <t>TC_Booking_2.6</t>
   </si>
 </sst>
 </file>
@@ -534,12 +562,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,9 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -583,6 +605,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +901,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -887,126 +921,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1020,10 +1054,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45839842-381F-4AA5-A8A6-3CCDBA2ED105}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,377 +1066,409 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
-    <col min="5" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="77.28515625" customWidth="1"/>
-    <col min="11" max="11" width="65.5703125" customWidth="1"/>
-    <col min="12" max="12" width="60.140625" customWidth="1"/>
-    <col min="13" max="13" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="20" customWidth="1"/>
+    <col min="6" max="8" width="55.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="77.28515625" customWidth="1"/>
+    <col min="12" max="12" width="65.5703125" customWidth="1"/>
+    <col min="13" max="13" width="60.140625" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:14" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="369" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="369" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="384" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="384" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="336.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="336.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,10 +1477,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E3F0F-5EAB-42CE-B2E9-F1DEB9788F3E}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,173 +1488,184 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" customWidth="1"/>
-    <col min="5" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="72" customWidth="1"/>
-    <col min="11" max="11" width="50.140625" customWidth="1"/>
-    <col min="12" max="12" width="54.85546875" customWidth="1"/>
-    <col min="13" max="13" width="36.5703125" customWidth="1"/>
+    <col min="4" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="8" width="55.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="72" customWidth="1"/>
+    <col min="12" max="12" width="50.140625" customWidth="1"/>
+    <col min="13" max="13" width="54.85546875" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bug_Reports.xlsx
+++ b/Bug_Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enthropy\Desktop\testask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD656E3C-B11B-4C32-9F3E-6E17046A15A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDADC92-6EC6-4419-84CB-A7150713FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BR_Auth" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>Тестирование API endpoints.</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>BR_Ping_2</t>
-  </si>
-  <si>
-    <t>Эндпоинт /ping при получении запроса отправляет статус-код HTTP 201 Created вместо HTTP 200 OK, что не соответствует REST API.</t>
   </si>
   <si>
     <t>При получении запроса методом POST эндпоинт некорректно его обрабатывает и возвращает на неподдерживаемый метод ошибку HTTP 404 Not Found.</t>
@@ -426,10 +423,6 @@
     <t>API некорректно обрабатывает POST запрос без тела и отдаёт статус-код HTTP 500 Internal Server Error вместо HTTP 400 Bad Request.</t>
   </si>
   <si>
-    <t>TC_Ping_1.1, 
-TC_Ping_1.2</t>
-  </si>
-  <si>
     <t>TC_Ping_2.2</t>
   </si>
   <si>
@@ -452,6 +445,40 @@
   </si>
   <si>
     <t>TC_Booking_2.6</t>
+  </si>
+  <si>
+    <t>Эндпоинт /ping при получении запроса отправляет статус-код HTTP 201 Created вместо HTTP 200 OK, что не соответствует стандартам REST API.</t>
+  </si>
+  <si>
+    <t>BR_Ping_3</t>
+  </si>
+  <si>
+    <t>TC_Ping_1.2</t>
+  </si>
+  <si>
+    <t>TC_Ping_1.1</t>
+  </si>
+  <si>
+    <t>Эндпоинт /ping при получении запроса с query-параметрами отправляет статус-код HTTP 201 Created вместо HTTP 400 Bad Request, (эндпоинт не поддерживает query-параметры) .</t>
+  </si>
+  <si>
+    <t>1. Запрос успешно отправлен;
+2. Статус-код HTTP 201 Created;
+3. Отображение текста "Not Found" в теле ответа.</t>
+  </si>
+  <si>
+    <t>1. Запрос успешно отправлен;
+2. Статус-код HTTP 400 Bad Request;
+3. Отображение текста ошибки в теле ответа.</t>
+  </si>
+  <si>
+    <t>Тестовые данные:
+URL: https://restful-booker.herokuapp.com/ping?value=test
+Query-параметры: 
+value: test. 
+1. Отправить HTTP запрос методом POST;
+2. Проверить статус-код ответа;
+3. Проверить тело ответа.</t>
   </si>
 </sst>
 </file>
@@ -606,17 +633,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,36 +948,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1032,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>26</v>
@@ -1056,7 +1083,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1066,7 +1093,7 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="18" customWidth="1"/>
     <col min="6" max="8" width="55.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.140625" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" customWidth="1"/>
@@ -1077,36 +1104,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -1158,10 +1185,10 @@
     </row>
     <row r="4" spans="1:14" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
@@ -1170,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -1188,22 +1215,22 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -1212,7 +1239,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
@@ -1230,22 +1257,22 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="369" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1254,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>28</v>
@@ -1272,22 +1299,22 @@
         <v>14</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -1296,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>28</v>
@@ -1314,22 +1341,22 @@
         <v>14</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -1338,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>28</v>
@@ -1356,22 +1383,22 @@
         <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="336.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
@@ -1380,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -1398,22 +1425,22 @@
         <v>14</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" s="12" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
@@ -1422,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>28</v>
@@ -1440,29 +1467,29 @@
         <v>14</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="19"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="19"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1477,10 +1504,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E3F0F-5EAB-42CE-B2E9-F1DEB9788F3E}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,36 +1526,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1578,12 +1605,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
@@ -1592,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -1610,22 +1637,22 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -1634,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -1652,15 +1679,57 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="M6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
